--- a/ExcelTemplate02.xlsx
+++ b/ExcelTemplate02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personel\Project\ISO.PDFSearchApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3588FF1D-07D1-45BE-82B3-80264F8821BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428107AD-B786-4D2B-9C73-7297C8FE086C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1890" windowWidth="18705" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="1896" windowWidth="18708" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportData" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,20 +218,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,31 +242,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -286,139 +255,82 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,215 +621,215 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="14" style="39" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="24" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="11" style="39" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="39" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="14" style="24" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="39" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="28.88671875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="11" style="13" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" style="13" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="14" style="13" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="52"/>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="46"/>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="26"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="38"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="38"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="38"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="38"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate02.xlsx
+++ b/ExcelTemplate02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personel\Project\ISO.PDFSearchApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428107AD-B786-4D2B-9C73-7297C8FE086C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D874D-7F92-40B7-A301-DA36E1380D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="1896" windowWidth="18708" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
     <col min="4" max="4" width="14.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="13" customWidth="1"/>
     <col min="8" max="8" width="4.5546875" style="13" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.88671875" style="13" bestFit="1" customWidth="1"/>
